--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3225" windowWidth="16860" windowHeight="3090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12840" windowHeight="3330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Testcases" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O9"/>
+  <oleSize ref="A1:C8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Testcasenme</t>
   </si>
   <si>
-    <t>Verify that al the cards should be open and clicked</t>
-  </si>
-  <si>
     <t>Verify that user should be click on the online cunsultation</t>
   </si>
   <si>
@@ -191,6 +188,21 @@
   </si>
   <si>
     <t xml:space="preserve">support screen shoud be shown </t>
+  </si>
+  <si>
+    <t>Verify that user should not be able to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Testcase descripton</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Verify that al the logo should be dispayed a</t>
   </si>
 </sst>
 </file>
@@ -1282,9 +1294,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1297,9 +1309,9 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1317,7 +1329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1357,31 +1369,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1391,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1411,19 +1423,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1431,13 +1444,16 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1445,164 +1461,220 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Testcases" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -142,36 +141,15 @@
     <t>Testcasenme</t>
   </si>
   <si>
-    <t>Verify that user should be click on the online cunsultation</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
-    <t>verify that user should be able to click and see all the hidni course from view all button</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to click and see all the english courses  view all section</t>
-  </si>
-  <si>
     <t>Verify that user should be able to see all the astroogers from astrology button</t>
   </si>
   <si>
-    <t>Verify that user should be able to see all the instructo with view all button</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to click on the footer links</t>
-  </si>
-  <si>
-    <t>Verify that all the social media link should be open</t>
-  </si>
-  <si>
     <t>Verify that address should be shown on the homescreen</t>
   </si>
   <si>
-    <t>Verify that user should be able to open the dashboard button</t>
-  </si>
-  <si>
     <t>Verify that all the purchase course should be shown in the my purchase section</t>
   </si>
   <si>
@@ -202,7 +180,94 @@
     <t>test</t>
   </si>
   <si>
-    <t>Verify that al the logo should be dispayed a</t>
+    <t>Verify that al the logo should be dispayed aLogoicondesplayed</t>
+  </si>
+  <si>
+    <t>Verify that user should be click on the online OnlineCunsultation</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open personalizedreport reports</t>
+  </si>
+  <si>
+    <t>verify that user should be able to click and see all the viewallbtnhndi course from view all button</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to click and see all the viewallenglish courses  view all section</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to see all the viewallinstructorrr with view all button</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to click on contactuspage</t>
+  </si>
+  <si>
+    <t>Verify that all the social media link should be open socialmedialiinksmethos</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open the getintouch Email</t>
+  </si>
+  <si>
+    <t>Verify that all the checklearningPage  course should be shown in the my checklearningPage</t>
+  </si>
+  <si>
+    <t>Verify that all the should be shown in the my coursespagetest</t>
+  </si>
+  <si>
+    <t>Verify that all the my comments page should be shown</t>
+  </si>
+  <si>
+    <t>Verify that favoirate section should be shown on the user panel</t>
+  </si>
+  <si>
+    <t>Verify  that assignment page should be open on the screen</t>
+  </si>
+  <si>
+    <t>Verify that quizzessection should be open on the screen</t>
+  </si>
+  <si>
+    <t>verify that not participated scetion should beopen on the screen</t>
+  </si>
+  <si>
+    <t>Verify that financila summary page should be open on the screen</t>
+  </si>
+  <si>
+    <t>verify tha installment page should be open on the screen</t>
+  </si>
+  <si>
+    <t>verify that View details section should be open on the screen</t>
+  </si>
+  <si>
+    <t>verify that suport page should be open in the user panel</t>
+  </si>
+  <si>
+    <t>verify that support new page should be open on the screen</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open Incustomersupport</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open  ticketcustom</t>
+  </si>
+  <si>
+    <t>Verify that user should be ticketcusto</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open Forumtab</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open Forumtabnewtopics</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open Forumtabnewtopics1</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open ForumtabnewPost</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open bookmarkspage</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to open logoutpageuser</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1379,10 +1444,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1403,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1423,15 +1488,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
@@ -1444,13 +1509,13 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1475,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1495,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1506,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1523,27 +1588,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1554,128 +1619,512 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12840" windowHeight="3330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11415" windowHeight="5610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Testcases" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -268,13 +269,103 @@
   </si>
   <si>
     <t>Verify that user should be able to open logoutpageuser</t>
+  </si>
+  <si>
+    <t>Verify that all the indformation should be shown to the dashboard (like account balance,pendng meetngs,monthly sales notice board)</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to see instructor profile</t>
+  </si>
+  <si>
+    <t>Verify that should be able to see request in reservation from instructor panel</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to set timing from setting on the instructor panel</t>
+  </si>
+  <si>
+    <t>Verify that user should be add new quiz from quiz option</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to set per min price for counsultation</t>
+  </si>
+  <si>
+    <t>Verify that user should be directly login from the user id</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create new course from instructor panel</t>
+  </si>
+  <si>
+    <t>Verify that user should be abe to see sales history</t>
+  </si>
+  <si>
+    <t>Verify that filter of sales history should work properly</t>
+  </si>
+  <si>
+    <t>Verify that financial summary should be shown on the finanacial documents</t>
+  </si>
+  <si>
+    <t>verify that instructor should be able to add money in wallet</t>
+  </si>
+  <si>
+    <t>verify that instructor should be able to see subscription plan</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to see the installment</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to see the instalment</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be edit and save basic information</t>
+  </si>
+  <si>
+    <t>Verify that all the course should be shown inside my courses section</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to edit the course details from edit button</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to make courses bundles bundles</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to see student's results</t>
+  </si>
+  <si>
+    <t>Verify that result statics should be shown on to the instructor</t>
+  </si>
+  <si>
+    <t>Verify that list of certificate should be shown to the user</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to see the conpletion certifcate</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create notice from new noticeboard for student</t>
+  </si>
+  <si>
+    <t>Verify that instructor notice should be shown on the screen</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create new article</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to add courses into cart</t>
+  </si>
+  <si>
+    <t>Verfy that instructor should be able to buy courses</t>
+  </si>
+  <si>
+    <t>Verify that user shoul.d be pay all the course videos from it</t>
+  </si>
+  <si>
+    <t>Verift tha user should be able to see course comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +516,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -607,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -722,6 +819,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -768,12 +880,18 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1488,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2125,6 +2243,333 @@
       </c>
       <c r="E37" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Testcases" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="118">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -142,9 +141,6 @@
     <t>Testcasenme</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>Verify that user should be able to see all the astroogers from astrology button</t>
   </si>
   <si>
@@ -175,9 +171,6 @@
     <t>Testcase descripton</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -355,10 +348,28 @@
     <t>Verfy that instructor should be able to buy courses</t>
   </si>
   <si>
-    <t>Verify that user shoul.d be pay all the course videos from it</t>
-  </si>
-  <si>
-    <t>Verift tha user should be able to see course comments</t>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Verify that instructor shoul.d be pay all the course videos from it</t>
+  </si>
+  <si>
+    <t>Verift that instructor should be able to see course comments</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to user should be open certificate list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that instructor should be able to open achievement from the list </t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to open the certificate section</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to open certificate</t>
   </si>
 </sst>
 </file>
@@ -704,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -834,6 +845,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -880,7 +902,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -890,6 +912,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1562,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1586,10 +1611,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1606,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,13 +1652,13 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1644,13 +1669,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,10 +1703,13 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,16 +1717,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,16 +1734,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,16 +1751,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,16 +1768,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,16 +1785,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,16 +1802,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,16 +1819,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,16 +1836,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,16 +1853,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,16 +1870,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,16 +1887,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,16 +1904,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,16 +1921,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,16 +1938,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,16 +1955,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,16 +1972,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,16 +1989,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,16 +2006,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,16 +2023,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,16 +2040,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,16 +2057,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,16 +2074,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,16 +2091,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,16 +2108,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,16 +2125,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,16 +2142,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,16 +2159,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,16 +2176,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2165,16 +2193,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2182,16 +2210,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,16 +2227,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,16 +2244,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2233,16 +2261,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2250,7 +2278,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,10 +2292,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2269,10 +2309,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,10 +2326,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,10 +2343,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2302,10 +2360,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2313,10 +2377,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,10 +2394,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2335,10 +2411,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2346,10 +2428,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2357,200 +2445,308 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2558,10 +2754,16 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2569,7 +2771,81 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\AstrocodeAtomation\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48969E8-D32C-4701-AA1E-A5393C72C037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11415" windowHeight="5610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11415" windowHeight="5610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="147">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -285,98 +291,185 @@
     <t>Verify that user should be directly login from the user id</t>
   </si>
   <si>
-    <t>Verify that user should be able to create new course from instructor panel</t>
-  </si>
-  <si>
-    <t>Verify that user should be abe to see sales history</t>
-  </si>
-  <si>
-    <t>Verify that filter of sales history should work properly</t>
-  </si>
-  <si>
-    <t>Verify that financial summary should be shown on the finanacial documents</t>
-  </si>
-  <si>
-    <t>verify that instructor should be able to add money in wallet</t>
-  </si>
-  <si>
-    <t>verify that instructor should be able to see subscription plan</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to see the installment</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to see the instalment</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be edit and save basic information</t>
-  </si>
-  <si>
-    <t>Verify that all the course should be shown inside my courses section</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to edit the course details from edit button</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to make courses bundles bundles</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to see student's results</t>
-  </si>
-  <si>
-    <t>Verify that result statics should be shown on to the instructor</t>
-  </si>
-  <si>
-    <t>Verify that list of certificate should be shown to the user</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to see the conpletion certifcate</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to create notice from new noticeboard for student</t>
-  </si>
-  <si>
-    <t>Verify that instructor notice should be shown on the screen</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to create new article</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to add courses into cart</t>
-  </si>
-  <si>
-    <t>Verfy that instructor should be able to buy courses</t>
-  </si>
-  <si>
     <t>no comment</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Verify that instructor shoul.d be pay all the course videos from it</t>
-  </si>
-  <si>
-    <t>Verift that instructor should be able to see course comments</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to user should be open certificate list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that instructor should be able to open achievement from the list </t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to open the certificate section</t>
-  </si>
-  <si>
-    <t>Verify that instructor should be able to open certificate</t>
+    <t>checkuser</t>
+  </si>
+  <si>
+    <t>profilename</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Profileusertest</t>
+  </si>
+  <si>
+    <t>inspanelSettingstest</t>
+  </si>
+  <si>
+    <t>notificationinst</t>
+  </si>
+  <si>
+    <t>Noticeboarcourse</t>
+  </si>
+  <si>
+    <t>Noticeboarnewcoursenot</t>
+  </si>
+  <si>
+    <t>Noticeboarnewcourse</t>
+  </si>
+  <si>
+    <t>Noticeboardhistorytest</t>
+  </si>
+  <si>
+    <t>Noticeboardhistorytesto</t>
+  </si>
+  <si>
+    <t>Noticeboardtesto</t>
+  </si>
+  <si>
+    <t>Noticeboardtest</t>
+  </si>
+  <si>
+    <t>ArticlComments</t>
+  </si>
+  <si>
+    <t>Articlesnewart</t>
+  </si>
+  <si>
+    <t>forumnewBookmark</t>
+  </si>
+  <si>
+    <t>forumnewForumsTopic</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>marktPromotionss</t>
+  </si>
+  <si>
+    <t>sMarketingMarkDiscountstest</t>
+  </si>
+  <si>
+    <t>supportMarketingtest</t>
+  </si>
+  <si>
+    <t>supportnewTicketsttest</t>
+  </si>
+  <si>
+    <t>supportnewscourseupporttest</t>
+  </si>
+  <si>
+    <t>supportnewtest</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>FinfinInstallments</t>
+  </si>
+  <si>
+    <t>FinfinAddSubscribe</t>
+  </si>
+  <si>
+    <t>FinfinAddWalletMoney</t>
+  </si>
+  <si>
+    <t>FinfinfinacPayout</t>
+  </si>
+  <si>
+    <t>Verify that instructor should be able to open  Articles</t>
+  </si>
+  <si>
+    <t>Finfinacsummary</t>
+  </si>
+  <si>
+    <t>FinSalesreportl</t>
+  </si>
+  <si>
+    <t>comletionSalesreportl</t>
+  </si>
+  <si>
+    <t>comletionTabnFinancial</t>
+  </si>
+  <si>
+    <t>comletioncertificatetest</t>
+  </si>
+  <si>
+    <t>certificateval</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>certificateList</t>
+  </si>
+  <si>
+    <t>certificatetest</t>
+  </si>
+  <si>
+    <t>requestmeetingadd</t>
+  </si>
+  <si>
+    <t>reservationmtingtest</t>
+  </si>
+  <si>
+    <t>Meetingtest</t>
+  </si>
+  <si>
+    <t>StudentAssigmenttest</t>
+  </si>
+  <si>
+    <t>myAssigmenttest</t>
+  </si>
+  <si>
+    <t>Assigmenttest</t>
+  </si>
+  <si>
+    <t>MyBundleCoursebundlesTest</t>
+  </si>
+  <si>
+    <t>NewCoursebundlesTest</t>
+  </si>
+  <si>
+    <t>CoursebundlesTest</t>
+  </si>
+  <si>
+    <t>favtestinst</t>
+  </si>
+  <si>
+    <t>myCoursecomments</t>
+  </si>
+  <si>
+    <t>mypurchessetab</t>
+  </si>
+  <si>
+    <t>CoursesMycoursepage</t>
+  </si>
+  <si>
+    <t>coursemycourse</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>courseopen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +625,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -902,7 +1001,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -915,6 +1014,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,6 +1072,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1016,7 +1122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1049,9 +1155,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,6 +1207,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1259,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1490,10 +1630,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1501,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1622,19 +1762,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1798,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1675,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1726,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1760,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1845,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1862,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1930,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2083,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2236,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2284,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2441,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2318,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2335,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2352,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2386,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2394,7 +2534,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
@@ -2403,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2411,7 +2551,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -2420,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2428,7 +2568,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -2437,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,7 +2585,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2454,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,7 +2602,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -2471,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2479,7 +2619,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -2488,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2496,7 +2636,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -2505,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2513,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
@@ -2522,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2530,7 +2670,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
@@ -2539,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2687,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -2556,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2564,7 +2704,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
@@ -2573,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2581,7 +2721,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
@@ -2590,7 +2730,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2598,7 +2738,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
@@ -2607,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2615,7 +2755,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
@@ -2624,15 +2764,15 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>103</v>
+      <c r="B59" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -2641,7 +2781,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2789,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -2658,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2666,7 +2806,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -2675,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2683,7 +2823,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2692,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2700,7 +2840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -2709,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2717,7 +2857,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
         <v>51</v>
@@ -2726,7 +2866,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2734,7 +2874,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
@@ -2743,7 +2883,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2751,7 +2891,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
@@ -2760,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2768,7 +2908,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2777,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,7 +2925,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -2794,7 +2934,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,7 +2942,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
@@ -2811,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,7 +2959,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>51</v>
@@ -2828,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,16 +2976,313 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\AstrocodeAtomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48969E8-D32C-4701-AA1E-A5393C72C037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53A9F9-7F5E-43B2-88F2-B20746202E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="11415" windowHeight="5610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="147">
   <si>
     <t>balmukund.sahu@rechargestudio.com</t>
   </si>
@@ -270,24 +270,6 @@
     <t>Verify that user should be able to open logoutpageuser</t>
   </si>
   <si>
-    <t>Verify that all the indformation should be shown to the dashboard (like account balance,pendng meetngs,monthly sales notice board)</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to see instructor profile</t>
-  </si>
-  <si>
-    <t>Verify that should be able to see request in reservation from instructor panel</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to set timing from setting on the instructor panel</t>
-  </si>
-  <si>
-    <t>Verify that user should be add new quiz from quiz option</t>
-  </si>
-  <si>
-    <t>Verify that user should be able to set per min price for counsultation</t>
-  </si>
-  <si>
     <t>Verify that user should be directly login from the user id</t>
   </si>
   <si>
@@ -463,6 +445,24 @@
   </si>
   <si>
     <t>courseopen</t>
+  </si>
+  <si>
+    <t>Verify that user should be able courseselect</t>
+  </si>
+  <si>
+    <t>Verify that user should be able addTocartbutton</t>
+  </si>
+  <si>
+    <t>Verify that user should be able gotocartpage</t>
+  </si>
+  <si>
+    <t>bookConsultation</t>
+  </si>
+  <si>
+    <t>consultationAstrolisttest</t>
+  </si>
+  <si>
+    <t>select time</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1798,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2418,13 +2418,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2432,7 +2435,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -2441,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2449,7 +2452,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -2458,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
@@ -2475,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2483,7 +2486,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -2492,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -2509,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2517,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2526,7 +2529,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2537,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
@@ -2543,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2551,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -2560,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2568,7 +2571,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -2577,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,7 +2588,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2594,7 +2597,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2602,7 +2605,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -2611,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2619,7 +2622,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -2628,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2636,7 +2639,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -2645,7 +2648,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2653,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
@@ -2662,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2670,7 +2673,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
@@ -2679,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2687,7 +2690,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -2696,7 +2699,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2704,7 +2707,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
@@ -2713,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2721,7 +2724,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
@@ -2730,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2738,7 +2741,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
@@ -2747,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2755,7 +2758,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
@@ -2764,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2772,7 +2775,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -2781,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2789,7 +2792,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -2798,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2809,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -2815,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2823,7 +2826,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2832,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,7 +2843,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -2849,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,7 +2860,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
         <v>51</v>
@@ -2866,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,7 +2877,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
@@ -2883,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2891,7 +2894,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
@@ -2900,7 +2903,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,7 +2911,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2917,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +2928,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -2934,7 +2937,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2945,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
@@ -2951,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,7 +2962,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>51</v>
@@ -2968,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2979,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
@@ -2985,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,7 +2996,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3004,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,7 +3012,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,7 +3020,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,7 +3028,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,7 +3036,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,7 +3052,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,7 +3060,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3068,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3076,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3084,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3092,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3100,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3108,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3116,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3124,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3148,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3156,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3164,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3172,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3180,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +3188,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3196,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3204,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +3212,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3220,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
